--- a/Vivienda/28.12.xlsx
+++ b/Vivienda/28.12.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monse\Desktop\data\tabla madre\VIVIENDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FB0B5-6B21-4E95-8526-DA8DD36873B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipo de hogar" sheetId="1" r:id="rId1"/>
+    <sheet name="Tipo de hogar (2017)" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla auxiliar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -2461,7 +2462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10C0A]#,##0;\(#,##0\)"/>
   </numFmts>
@@ -2817,50 +2818,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:H2423" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:H2423"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla3" displayName="Tabla3" ref="A1:H2423" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H2423" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Codreg" dataDxfId="8"/>
-    <tableColumn id="2" name="Codprov" dataDxfId="7"/>
-    <tableColumn id="3" name="Codcom" dataDxfId="6"/>
-    <tableColumn id="6" name="Comuna" dataDxfId="5"/>
-    <tableColumn id="7" name="Region" dataDxfId="4"/>
-    <tableColumn id="4" name="ID Tipo de hogar " dataDxfId="3"/>
-    <tableColumn id="5" name="Año" dataDxfId="2"/>
-    <tableColumn id="9" name="Valor" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comuna" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Region" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID Tipo de hogar " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Año" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Valor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:B9" totalsRowShown="0">
-  <autoFilter ref="A2:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla1" displayName="Tabla1" ref="A2:B9" totalsRowShown="0">
+  <autoFilter ref="A2:B9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ID Tipo de hoagares"/>
-    <tableColumn id="2" name="N° ID"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID Tipo de hoagares"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="N° ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A13:B20" totalsRowShown="0">
-  <autoFilter ref="A13:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla2" displayName="Tabla2" ref="A13:B20" totalsRowShown="0">
+  <autoFilter ref="A13:B20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de hogar " dataDxfId="0"/>
-    <tableColumn id="2" name="Definicion"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Tipo de hogar " dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Definicion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="D2:E3" totalsRowShown="0">
-  <autoFilter ref="D2:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla4" displayName="Tabla4" ref="D2:E3" totalsRowShown="0">
+  <autoFilter ref="D2:E3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Fuente"/>
-    <tableColumn id="2" name="Link "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Fuente"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3128,11 +3129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2423"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66148,11 +66149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
